--- a/educatico/02-Ficha-educatico, Maletín Bac.xlsx
+++ b/educatico/02-Ficha-educatico, Maletín Bac.xlsx
@@ -21,7 +21,7 @@
     <sheet name="tipo de recurso" sheetId="2" r:id="rId7"/>
     <sheet name="tematica" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="462">
   <si>
     <t>Título</t>
   </si>
@@ -1709,24 +1709,9 @@
     </r>
   </si>
   <si>
-    <t>Todas</t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
-    <t>https://recursos.mep.go.cr/2021/coleccion_gespro/</t>
-  </si>
-  <si>
-    <t>recurso, apoyos, apoyo educativo, apps, app, multimedio, juegos, gamificación, pedagogía, GESPRO, recursos, profe en casa, juegos, sitios, multimedios, videos, juego, ayudas, pedagogía, Patricia Hernández Conejo, Luis Chacón Campos, Ana Araya Salazar, Oscar Perez Ramírez</t>
-  </si>
-  <si>
     <t>Ciencias Sociales/Educación</t>
   </si>
   <si>
-    <t>TC13</t>
-  </si>
-  <si>
     <t>Finanzas Personales y Familiares para la vida cotidiana</t>
   </si>
   <si>
@@ -1734,7 +1719,21 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">MEP:-   
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEPen colaboración con el BAC San José</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Ruth Aguilar Cabezas, DDC   y Victor Castro Oconitrillo
  </t>
     </r>
     <r>
@@ -1754,6 +1753,24 @@
       </rPr>
       <t>: Luis Chacón Campos, Óscar Peréz Ramírez,  Ana Araya Salazar, Patricia Hernández Conejo.</t>
     </r>
+  </si>
+  <si>
+    <t>Educación para el hogar</t>
+  </si>
+  <si>
+    <t>III Ciclo, Educación Diversificada</t>
+  </si>
+  <si>
+    <t>Docentes,padres,estudiantes</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>educación financiera,finanzas,ahorro, créditos, gastos, presupuestos, financiero,vida financiera, tarjetas de créditos, tarjetas, inversión, Patricia Hernández Conejo, Luis Chacón Campos, Ana Araya Salazar, Oscar Perez Ramírez</t>
+  </si>
+  <si>
+    <t>04 de marzo, 2021</t>
   </si>
 </sst>
 </file>
@@ -2366,19 +2383,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
+      <xdr:colOff>132523</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>709448</xdr:rowOff>
+      <xdr:rowOff>549544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1697935</xdr:colOff>
+      <xdr:colOff>1663610</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>1688856</xdr:rowOff>
+      <xdr:rowOff>1507435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2397,8 +2414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19712609" y="1603970"/>
-          <a:ext cx="1565413" cy="979408"/>
+          <a:off x="19712610" y="1444066"/>
+          <a:ext cx="1531087" cy="957891"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5487,22 +5504,22 @@
     </row>
     <row r="70" spans="1:39" s="44" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="F70" s="41" t="s">
         <v>458</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>460</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>453</v>
       </c>
       <c r="G70" s="41" t="s">
         <v>91</v>
@@ -5514,19 +5531,19 @@
         <v>441</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K70" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="L70" s="79" t="s">
-        <v>454</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="L70" s="79"/>
       <c r="M70" s="40"/>
       <c r="N70" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="O70" s="69"/>
+        <v>460</v>
+      </c>
+      <c r="O70" s="69" t="s">
+        <v>461</v>
+      </c>
       <c r="P70" s="41"/>
       <c r="Q70" s="46"/>
       <c r="R70" s="46"/>
@@ -10061,16 +10078,15 @@
     <hyperlink ref="Q55" r:id="rId16" display="https://vimeo.com/41425208"/>
     <hyperlink ref="Q54" r:id="rId17"/>
     <hyperlink ref="Q53" r:id="rId18" display="https://vimeo.com/41423349"/>
-    <hyperlink ref="L70" r:id="rId19" tooltip="https://recursos.mep.go.cr/2021/coleccion_gespro/"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <drawing r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -10485,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/educatico/02-Ficha-educatico, Maletín Bac.xlsx
+++ b/educatico/02-Ficha-educatico, Maletín Bac.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="465">
   <si>
     <t>Título</t>
   </si>
@@ -1771,6 +1771,15 @@
   </si>
   <si>
     <t>04 de marzo, 2021</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/capsulas-informativas-educacion-financiera</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/carretica-cuentera</t>
+  </si>
+  <si>
+    <t>https://www.mep.go.cr/educatico/jovenes-banqueros</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2051,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2289,6 +2298,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2716,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5544,13 +5559,15 @@
       <c r="O70" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="P70" s="41"/>
+      <c r="P70" s="84" t="s">
+        <v>462</v>
+      </c>
       <c r="Q70" s="46"/>
       <c r="R70" s="46"/>
       <c r="S70" s="46"/>
       <c r="T70" s="43"/>
     </row>
-    <row r="71" spans="1:39" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" s="44" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="72"/>
       <c r="B71" s="72"/>
       <c r="C71" s="72"/>
@@ -5566,13 +5583,15 @@
       <c r="M71" s="78"/>
       <c r="N71" s="73"/>
       <c r="O71" s="73"/>
-      <c r="P71" s="41"/>
+      <c r="P71" s="84" t="s">
+        <v>463</v>
+      </c>
       <c r="Q71" s="47"/>
       <c r="R71" s="46"/>
       <c r="S71" s="46"/>
       <c r="T71" s="45"/>
     </row>
-    <row r="72" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="74"/>
       <c r="B72" s="74"/>
       <c r="C72" s="74"/>
@@ -5588,7 +5607,9 @@
       <c r="M72" s="75"/>
       <c r="N72" s="75"/>
       <c r="O72" s="75"/>
-      <c r="P72" s="75"/>
+      <c r="P72" s="83" t="s">
+        <v>464</v>
+      </c>
       <c r="Q72" s="31"/>
       <c r="R72" s="23"/>
       <c r="S72" s="23"/>
@@ -10078,15 +10099,18 @@
     <hyperlink ref="Q55" r:id="rId16" display="https://vimeo.com/41425208"/>
     <hyperlink ref="Q54" r:id="rId17"/>
     <hyperlink ref="Q53" r:id="rId18" display="https://vimeo.com/41423349"/>
+    <hyperlink ref="P72" r:id="rId19"/>
+    <hyperlink ref="P70" r:id="rId20"/>
+    <hyperlink ref="P71" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <drawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/educatico/02-Ficha-educatico, Maletín Bac.xlsx
+++ b/educatico/02-Ficha-educatico, Maletín Bac.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="466">
   <si>
     <t>Título</t>
   </si>
@@ -1780,6 +1780,9 @@
   </si>
   <si>
     <t>https://www.mep.go.cr/educatico/jovenes-banqueros</t>
+  </si>
+  <si>
+    <t>http://recursos.mep.go.cr/2021/educacion_financiera_III_ciclo/</t>
   </si>
 </sst>
 </file>
@@ -2290,6 +2293,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2298,12 +2307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2731,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2747,26 +2750,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
       <c r="S1" s="65"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5551,7 +5554,9 @@
       <c r="K70" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="L70" s="79"/>
+      <c r="L70" s="79" t="s">
+        <v>465</v>
+      </c>
       <c r="M70" s="40"/>
       <c r="N70" s="42" t="s">
         <v>460</v>
@@ -5559,7 +5564,7 @@
       <c r="O70" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="P70" s="84" t="s">
+      <c r="P70" s="81" t="s">
         <v>462</v>
       </c>
       <c r="Q70" s="46"/>
@@ -5583,7 +5588,7 @@
       <c r="M71" s="78"/>
       <c r="N71" s="73"/>
       <c r="O71" s="73"/>
-      <c r="P71" s="84" t="s">
+      <c r="P71" s="81" t="s">
         <v>463</v>
       </c>
       <c r="Q71" s="47"/>
@@ -5607,7 +5612,7 @@
       <c r="M72" s="75"/>
       <c r="N72" s="75"/>
       <c r="O72" s="75"/>
-      <c r="P72" s="83" t="s">
+      <c r="P72" s="80" t="s">
         <v>464</v>
       </c>
       <c r="Q72" s="31"/>
@@ -10102,15 +10107,16 @@
     <hyperlink ref="P72" r:id="rId19"/>
     <hyperlink ref="P70" r:id="rId20"/>
     <hyperlink ref="P71" r:id="rId21"/>
+    <hyperlink ref="L70" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <drawing r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
